--- a/biology/Botanique/Square_du_Général-Morin/Square_du_Général-Morin.xlsx
+++ b/biology/Botanique/Square_du_Général-Morin/Square_du_Général-Morin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_du_G%C3%A9n%C3%A9ral-Morin</t>
+          <t>Square_du_Général-Morin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square du Général-Morin est un espace vert situé dans le 3e arrondissement de Paris au nord-ouest du quartier du Marais. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_du_G%C3%A9n%C3%A9ral-Morin</t>
+          <t>Square_du_Général-Morin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square se trouve derrière la chapelle du Conservatoire national des arts et métiers et donne accès à son musée. 
 Ce site est desservi par les lignes 3 et 11 à la station de métro Arts et Métiers.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_du_G%C3%A9n%C3%A9ral-Morin</t>
+          <t>Square_du_Général-Morin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom du square honore Arthur Morin (1795-1880), général et physicien français. 
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_du_G%C3%A9n%C3%A9ral-Morin</t>
+          <t>Square_du_Général-Morin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été tracé à l'emplacement de la rue de Breteuil[1], voie tracée en 1780 entre la rue Royale-Saint-Martin (actuellement rue Réaumur) et la rue Vaucanson[2].
-À partir de 2010, se trouve dans le square un bronze exécuté à partir du plâtre original de la statue de la Liberté de Bartholdi de 2,83 m de hauteur, numéro 1 d'un tirage original de 12, réalisé par le musée et fondu par la Fonderie Susse. La France envoie le 7 juin 2021 cette statue de la Liberté aux États-Unis pour renforcer l’amitié franco-américaine. Embarquée au port du Havre à bord du porte-conteneurs français Tosca, elle est d'abord installée à Ellis Island entre les 1er et 6 juillet, donc présente le 4 pour le Jour de l'Indépendance. La statue est ensuite exposée, à partir du 14, pour la Fête nationale française, dans les jardins de l'ambassade française à Washington[3], où elle doit rester une décennie[4] ; il s'agit en effet d'un prêt du musée des Arts et Métiers[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été tracé à l'emplacement de la rue de Breteuil, voie tracée en 1780 entre la rue Royale-Saint-Martin (actuellement rue Réaumur) et la rue Vaucanson.
+À partir de 2010, se trouve dans le square un bronze exécuté à partir du plâtre original de la statue de la Liberté de Bartholdi de 2,83 m de hauteur, numéro 1 d'un tirage original de 12, réalisé par le musée et fondu par la Fonderie Susse. La France envoie le 7 juin 2021 cette statue de la Liberté aux États-Unis pour renforcer l’amitié franco-américaine. Embarquée au port du Havre à bord du porte-conteneurs français Tosca, elle est d'abord installée à Ellis Island entre les 1er et 6 juillet, donc présente le 4 pour le Jour de l'Indépendance. La statue est ensuite exposée, à partir du 14, pour la Fête nationale française, dans les jardins de l'ambassade française à Washington, où elle doit rester une décennie ; il s'agit en effet d'un prêt du musée des Arts et Métiers.
 			Le chevet de l'église Saint-Martin-des-Champs avant la création du square.
 			Vue depuis l'entrée sur la rue Réaumur.
 			Statue de la Liberté dressée dans le square.
